--- a/public/sample/exhibitionupload.xlsx
+++ b/public/sample/exhibitionupload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\000.FrontEnd\068.gallery_web_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9E42B2-034E-44D6-A765-542E5FD1A444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416F629A-AD60-482B-920F-1C1280D39D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>working_hour</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,9 +78,6 @@
     <t>https://galleryimages123.s3.ap-northeast-2.amazonaws.com/tongin.jpg</t>
   </si>
   <si>
-    <t>2025-03-05 ~ 2025-03-23</t>
-  </si>
-  <si>
     <t>연중무휴11</t>
   </si>
   <si>
@@ -104,6 +97,14 @@
   </si>
   <si>
     <t>최중섭: Layer landscape</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,18 +470,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="12" width="15.625" style="2" customWidth="1"/>
+    <col min="1" max="13" width="15.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,75 +492,81 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2">
+        <v>20250101</v>
+      </c>
+      <c r="E2" s="2">
+        <v>20251231</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <v>15000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{052307F9-FC36-4369-BCEA-6863A1687DBA}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{052307F9-FC36-4369-BCEA-6863A1687DBA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
